--- a/data/trans_orig/P71_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P71_R-Dificultad-trans_orig.xlsx
@@ -1420,19 +1420,19 @@
         <v>584141</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>536762</v>
+        <v>540265</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>624587</v>
+        <v>629286</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1808023121121876</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1661375860688604</v>
+        <v>0.1672216755585526</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1933209398755536</v>
+        <v>0.1947754577590402</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>885</v>
@@ -1441,19 +1441,19 @@
         <v>922333</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>870066</v>
+        <v>874633</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>976568</v>
+        <v>972911</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2782328227919453</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2624656905835934</v>
+        <v>0.26384362051667</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2945932591776289</v>
+        <v>0.2934901523510872</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1459</v>
@@ -1462,19 +1462,19 @@
         <v>1506475</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1439705</v>
+        <v>1436929</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1567173</v>
+        <v>1571189</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2301437521271422</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2199434528498186</v>
+        <v>0.2195193612301093</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2394166689381697</v>
+        <v>0.2400301997662136</v>
       </c>
     </row>
     <row r="17">
@@ -1491,19 +1491,19 @@
         <v>2646688</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2606242</v>
+        <v>2601543</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2694067</v>
+        <v>2690564</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8191976878878124</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8066790601244465</v>
+        <v>0.8052245422409599</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8338624139311396</v>
+        <v>0.8327783244414475</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2349</v>
@@ -1512,19 +1512,19 @@
         <v>2392636</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2338401</v>
+        <v>2342058</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2444903</v>
+        <v>2440336</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7217671772080547</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7054067408223731</v>
+        <v>0.7065098476489129</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7375343094164073</v>
+        <v>0.7361563794833301</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4943</v>
@@ -1533,19 +1533,19 @@
         <v>5039323</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4978625</v>
+        <v>4974609</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5106093</v>
+        <v>5108869</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7698562478728578</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7605833310618303</v>
+        <v>0.7599698002337864</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7800565471501815</v>
+        <v>0.7804806387698907</v>
       </c>
     </row>
     <row r="18">
@@ -2553,19 +2553,19 @@
         <v>1043935</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>990857</v>
+        <v>989983</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1097770</v>
+        <v>1098466</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3062159628094056</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2906467982394483</v>
+        <v>0.2903905478034928</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3220075191731135</v>
+        <v>0.3222115492250381</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1031</v>
@@ -2574,19 +2574,19 @@
         <v>1119928</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1059474</v>
+        <v>1063175</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1173364</v>
+        <v>1175015</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3161208563009959</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2990564639191026</v>
+        <v>0.3001012413198693</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3312041501957175</v>
+        <v>0.3316702245341578</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2009</v>
@@ -2595,19 +2595,19 @@
         <v>2163863</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2082216</v>
+        <v>2087311</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2242136</v>
+        <v>2252403</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3112635682667973</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2995189809956259</v>
+        <v>0.300251809043095</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3225228860985103</v>
+        <v>0.3239997014749658</v>
       </c>
     </row>
     <row r="17">
@@ -2624,19 +2624,19 @@
         <v>2365210</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2311375</v>
+        <v>2310679</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2418288</v>
+        <v>2419162</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6937840371905943</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6779924808268863</v>
+        <v>0.677788450774962</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7093532017605515</v>
+        <v>0.7096094521965074</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2253</v>
@@ -2645,19 +2645,19 @@
         <v>2422794</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2369358</v>
+        <v>2367707</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2483248</v>
+        <v>2479547</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6838791436990042</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6687958498042824</v>
+        <v>0.6683297754658422</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7009435360808974</v>
+        <v>0.6998987586801307</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4468</v>
@@ -2666,19 +2666,19 @@
         <v>4788004</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4709731</v>
+        <v>4699464</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4869651</v>
+        <v>4864556</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6887364317332028</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6774771139014897</v>
+        <v>0.6760002985250342</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.700481019004374</v>
+        <v>0.6997481909569047</v>
       </c>
     </row>
     <row r="18">
@@ -3686,19 +3686,19 @@
         <v>1127997</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1073090</v>
+        <v>1075168</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1185169</v>
+        <v>1184613</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3349874218795469</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3186814587654283</v>
+        <v>0.3192984871535899</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3519660070048566</v>
+        <v>0.3518009977240096</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1188</v>
@@ -3707,19 +3707,19 @@
         <v>1259561</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1203794</v>
+        <v>1208388</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1317053</v>
+        <v>1322874</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3571405994941168</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3413284128898709</v>
+        <v>0.342630972257788</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3734421093541375</v>
+        <v>0.3750928488997676</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2254</v>
@@ -3728,19 +3728,19 @@
         <v>2387558</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2304390</v>
+        <v>2304920</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2470329</v>
+        <v>2473364</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3463202927758023</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.334256535229414</v>
+        <v>0.3343335167394599</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3583264067718812</v>
+        <v>0.3587666103649736</v>
       </c>
     </row>
     <row r="17">
@@ -3757,19 +3757,19 @@
         <v>2239285</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2182113</v>
+        <v>2182669</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2294192</v>
+        <v>2292114</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6650125781204531</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6480339929951434</v>
+        <v>0.6481990022759904</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6813185412345717</v>
+        <v>0.6807015128464101</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2134</v>
@@ -3778,19 +3778,19 @@
         <v>2267231</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2209739</v>
+        <v>2203918</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2322998</v>
+        <v>2318404</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6428594005058832</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6265578906458625</v>
+        <v>0.6249071511002322</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6586715871101291</v>
+        <v>0.6573690277422115</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4273</v>
@@ -3799,19 +3799,19 @@
         <v>4506517</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4423746</v>
+        <v>4420711</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4589685</v>
+        <v>4589155</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6536797072241977</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6416735932281185</v>
+        <v>0.6412333896350264</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6657434647705852</v>
+        <v>0.6656664832605401</v>
       </c>
     </row>
     <row r="18">
@@ -4819,19 +4819,19 @@
         <v>498739</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>454576</v>
+        <v>453404</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>543337</v>
+        <v>547477</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.143263028438821</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1305771752612658</v>
+        <v>0.1302403486750901</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1560738651865175</v>
+        <v>0.1572629658655176</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>861</v>
@@ -4840,19 +4840,19 @@
         <v>623580</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>584943</v>
+        <v>582638</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>668284</v>
+        <v>666761</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.168652987615957</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1582031961928502</v>
+        <v>0.1575799114883717</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1807435181023281</v>
+        <v>0.1803316867074464</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1316</v>
@@ -4861,19 +4861,19 @@
         <v>1122320</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1060166</v>
+        <v>1065686</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1186764</v>
+        <v>1192142</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1563402203592335</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1476821080776039</v>
+        <v>0.1484511499309641</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1653173067503195</v>
+        <v>0.1660665605953379</v>
       </c>
     </row>
     <row r="17">
@@ -4890,19 +4890,19 @@
         <v>2982545</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2937947</v>
+        <v>2933807</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3026708</v>
+        <v>3027880</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.856736971561179</v>
+        <v>0.8567369715611789</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8439261348134823</v>
+        <v>0.8427370341344824</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8694228247387341</v>
+        <v>0.8697596513249097</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4447</v>
@@ -4911,19 +4911,19 @@
         <v>3073836</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3029132</v>
+        <v>3030655</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3112473</v>
+        <v>3114778</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8313470123840428</v>
+        <v>0.8313470123840431</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8192564818976716</v>
+        <v>0.8196683132925536</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8417968038071498</v>
+        <v>0.8424200885116283</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7333</v>
@@ -4932,19 +4932,19 @@
         <v>6056381</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5991937</v>
+        <v>5986559</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6118535</v>
+        <v>6113015</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8436597796407665</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8346826932496804</v>
+        <v>0.8339334394046621</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.852317891922396</v>
+        <v>0.8515488500690359</v>
       </c>
     </row>
     <row r="18">
